--- a/path/外部設計/図書管理システム_テーブル設計書.xlsx
+++ b/path/外部設計/図書管理システム_テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="資料目録" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="80">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -120,6 +120,9 @@
     <t xml:space="preserve"> auto increment</t>
   </si>
   <si>
+    <t xml:space="preserve">FK</t>
+  </si>
+  <si>
     <t xml:space="preserve">入荷年月日</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">discard_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">廃棄されるまではNULL</t>
   </si>
   <si>
     <t xml:space="preserve">remarks</t>
@@ -471,7 +477,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -570,6 +576,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -680,10 +690,10 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -894,10 +904,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="13.02"/>
@@ -977,7 +987,9 @@
       <c r="E4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -999,10 +1011,10 @@
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>26</v>
@@ -1016,10 +1028,10 @@
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>26</v>
@@ -1027,17 +1039,19 @@
       <c r="D7" s="7"/>
       <c r="E7" s="20"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="20"/>
@@ -1101,11 +1115,11 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.04"/>
@@ -1117,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="4"/>
@@ -1146,10 +1160,10 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>19</v>
@@ -1166,10 +1180,10 @@
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>19</v>
@@ -1199,10 +1213,10 @@
     </row>
     <row r="6" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>26</v>
@@ -1212,15 +1226,15 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>26</v>
@@ -1230,15 +1244,15 @@
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>26</v>
@@ -1246,7 +1260,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="10"/>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1254,10 +1268,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="9"/>
@@ -1302,11 +1316,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
@@ -1322,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
@@ -1354,13 +1368,13 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>19</v>
@@ -1377,13 +1391,13 @@
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
@@ -1397,10 +1411,10 @@
     <row r="5" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -1413,16 +1427,16 @@
     </row>
     <row r="6" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>12</v>
@@ -1432,16 +1446,16 @@
     </row>
     <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>12</v>
@@ -1451,13 +1465,13 @@
     </row>
     <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>16</v>
@@ -1470,13 +1484,13 @@
     </row>
     <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>26</v>
@@ -1486,18 +1500,18 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>26</v>
@@ -1507,39 +1521,43 @@
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="G11" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="25" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="21"/>
@@ -1569,7 +1587,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
@@ -1586,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
@@ -1618,13 +1636,13 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>19</v>
@@ -1641,13 +1659,13 @@
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
@@ -1660,13 +1678,13 @@
     </row>
     <row r="5" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
@@ -1679,66 +1697,66 @@
     </row>
     <row r="6" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+        <v>61</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="25"/>
+        <v>63</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="25"/>
+        <v>65</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+        <v>67</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="21"/>
@@ -1765,10 +1783,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.07"/>
@@ -1779,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="4"/>
@@ -1828,10 +1846,10 @@
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>16</v>

--- a/path/外部設計/図書管理システム_テーブル設計書.xlsx
+++ b/path/外部設計/図書管理システム_テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="資料目録" sheetId="1" state="visible" r:id="rId2"/>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">update_date</t>
   </si>
   <si>
-    <t xml:space="preserve">DATETIME</t>
+    <t xml:space="preserve">TIMESTAMP</t>
   </si>
   <si>
     <t xml:space="preserve">manager (管理者IDテーブル)</t>
@@ -679,11 +679,11 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -893,11 +893,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="13.02"/>
@@ -1101,11 +1101,11 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.04"/>
@@ -1302,11 +1302,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
@@ -1565,11 +1565,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
@@ -1764,11 +1764,11 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.07"/>

--- a/path/外部設計/図書管理システム_テーブル設計書.xlsx
+++ b/path/外部設計/図書管理システム_テーブル設計書.xlsx
@@ -177,7 +177,7 @@
     <t xml:space="preserve">返却されるまではNULL</t>
   </si>
   <si>
-    <t xml:space="preserve">user (会員台帳テーブル)</t>
+    <t xml:space="preserve">user_table (会員台帳テーブル)</t>
   </si>
   <si>
     <t xml:space="preserve">氏名</t>
@@ -1302,8 +1302,8 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/path/外部設計/図書管理システム_テーブル設計書.xlsx
+++ b/path/外部設計/図書管理システム_テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="資料目録" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="80">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パスワード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
   </si>
   <si>
     <t xml:space="preserve">CategoryCode (分類コードテーブル)</t>
@@ -471,7 +477,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -572,6 +578,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -581,15 +599,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -683,7 +701,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -897,7 +915,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="13.02"/>
@@ -1105,7 +1123,7 @@
       <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.17578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.04"/>
@@ -1302,11 +1320,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
@@ -1565,11 +1583,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
@@ -1681,10 +1699,18 @@
       <c r="A6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
+      <c r="B6" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
     </row>
@@ -1692,53 +1718,53 @@
       <c r="A7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="25"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="21"/>
@@ -1768,7 +1794,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.07"/>
@@ -1779,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="4"/>
@@ -1828,10 +1854,10 @@
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>16</v>

--- a/path/外部設計/図書管理システム_テーブル設計書.xlsx
+++ b/path/外部設計/図書管理システム_テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="資料目録" sheetId="1" state="visible" r:id="rId2"/>
@@ -697,11 +697,11 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -896,7 +896,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="87" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -911,11 +911,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="13.02"/>
@@ -1104,7 +1104,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
@@ -1119,11 +1119,11 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.17578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.04"/>
@@ -1305,7 +1305,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
@@ -1320,15 +1320,17 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.04"/>
   </cols>
   <sheetData>
@@ -1545,7 +1547,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="37.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="23" t="s">
         <v>67</v>
       </c>
@@ -1568,7 +1570,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="87" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
@@ -1583,11 +1585,11 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
@@ -1775,7 +1777,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="91" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
@@ -1790,11 +1792,11 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.07"/>
@@ -1875,7 +1877,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="123" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
